--- a/todo_list.xlsx
+++ b/todo_list.xlsx
@@ -187,7 +187,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -310,8 +310,8 @@
       <top style="dotted">
         <color indexed="13"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+      <bottom style="dotted">
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -325,8 +325,8 @@
       <top style="dotted">
         <color indexed="13"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+      <bottom style="dotted">
+        <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
@@ -340,6 +340,141 @@
       <top style="dotted">
         <color indexed="13"/>
       </top>
+      <bottom style="dotted">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="dotted">
+        <color indexed="13"/>
+      </right>
+      <top style="dotted">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="13"/>
+      </left>
+      <right style="dotted">
+        <color indexed="13"/>
+      </right>
+      <top style="dotted">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="dotted">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="dotted">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="13"/>
+      </left>
+      <right style="dotted">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="dotted">
+        <color indexed="13"/>
+      </right>
+      <top style="dotted">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="13"/>
+      </left>
+      <right style="dotted">
+        <color indexed="13"/>
+      </right>
+      <top style="dotted">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="dotted">
+        <color indexed="13"/>
+      </top>
       <bottom style="thin">
         <color indexed="11"/>
       </bottom>
@@ -351,7 +486,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -394,13 +529,40 @@
     <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
@@ -432,6 +594,8 @@
       <rgbColor rgb="ff929292"/>
       <rgbColor rgb="ffadadad"/>
       <rgbColor rgb="fff4f9f7"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffbfbfbf"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1525,9 +1689,9 @@
     <col min="1" max="1" width="57.4219" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.9297" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.6016" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6719" style="17" customWidth="1"/>
-    <col min="5" max="5" width="27.2812" style="17" customWidth="1"/>
-    <col min="6" max="256" width="8.17969" style="17" customWidth="1"/>
+    <col min="4" max="4" width="52.6719" style="26" customWidth="1"/>
+    <col min="5" max="5" width="27.2812" style="26" customWidth="1"/>
+    <col min="6" max="256" width="8.17969" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="33" customHeight="1">
@@ -1574,21 +1738,21 @@
       <c r="C7" s="13"/>
     </row>
     <row r="8" ht="22.75" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
     </row>
     <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" t="s" s="11">
+      <c r="A9" t="s" s="17">
         <v>4</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" ht="22.75" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="10"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
     </row>
     <row r="11" ht="22.75" customHeight="1">
       <c r="A11" s="11"/>
@@ -1616,21 +1780,21 @@
       <c r="C15" s="13"/>
     </row>
     <row r="16" ht="22.75" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" ht="22.75" customHeight="1">
-      <c r="A17" t="s" s="11">
+      <c r="A17" t="s" s="17">
         <v>5</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" ht="22.75" customHeight="1">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
     </row>
     <row r="19" ht="22.75" customHeight="1">
       <c r="A19" s="11"/>
@@ -1663,15 +1827,15 @@
       <c r="C24" s="10"/>
     </row>
     <row r="25" ht="22.5" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="16"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
     </row>
     <row r="27" ht="22.6" customHeight="1">
-      <c r="D27" t="s" s="18">
+      <c r="D27" t="s" s="27">
         <v>6</v>
       </c>
-      <c r="E27" t="s" s="18">
+      <c r="E27" t="s" s="27">
         <v>7</v>
       </c>
     </row>
@@ -1692,8 +1856,8 @@
       <c r="E31" s="10"/>
     </row>
     <row r="32" ht="22.5" customHeight="1">
-      <c r="D32" s="14"/>
-      <c r="E32" s="16"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/todo_list.xlsx
+++ b/todo_list.xlsx
@@ -23,7 +23,7 @@
         <color indexed="9"/>
         <rFont val="Avenir Next Heavy"/>
       </rPr>
-      <t xml:space="preserve">Things to-do this week to </t>
+      <t xml:space="preserve">Things to-do to </t>
     </r>
     <r>
       <rPr>
@@ -33,6 +33,14 @@
         <rFont val="Avenir Next Heavy"/>
       </rPr>
       <t>Survive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Heavy"/>
+      </rPr>
+      <t xml:space="preserve"> the week</t>
     </r>
   </si>
   <si>
@@ -111,19 +119,11 @@
         <color indexed="9"/>
         <rFont val="Avenir Next Heavy"/>
       </rPr>
-      <t xml:space="preserve"> doing </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Demi Bold"/>
-      </rPr>
-      <t>(irrational and anti life-sustaining values)</t>
+      <t xml:space="preserve"> doing</t>
     </r>
   </si>
   <si>
-    <t>Things to value instead</t>
+    <t>Things to do instead</t>
   </si>
 </sst>
 </file>
@@ -486,7 +486,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -570,6 +570,12 @@
     </xf>
     <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -599,6 +605,105 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>73152</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2893568</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>88265</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Shape 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="73152" y="7678420"/>
+          <a:ext cx="2820417" cy="321311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="6D6D6D"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Avenir Next Heavy"/>
+              <a:ea typeface="Avenir Next Heavy"/>
+              <a:cs typeface="Avenir Next Heavy"/>
+              <a:sym typeface="Avenir Next Heavy"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="6D6D6D"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Avenir Next Demi Bold"/>
+            </a:rPr>
+            <a:t>(not help you survive, be productive or thrive)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1680,7 +1785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E32"/>
+  <dimension ref="A2:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1689,8 +1794,8 @@
     <col min="1" max="1" width="57.4219" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.9297" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.6016" style="1" customWidth="1"/>
-    <col min="4" max="4" width="52.6719" style="26" customWidth="1"/>
-    <col min="5" max="5" width="27.2812" style="26" customWidth="1"/>
+    <col min="4" max="4" width="39.4297" style="26" customWidth="1"/>
+    <col min="5" max="5" width="40.5312" style="26" customWidth="1"/>
     <col min="6" max="256" width="8.17969" style="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1855,9 +1960,13 @@
       <c r="D31" s="8"/>
       <c r="E31" s="10"/>
     </row>
-    <row r="32" ht="22.5" customHeight="1">
-      <c r="D32" s="23"/>
-      <c r="E32" s="25"/>
+    <row r="32" ht="22.75" customHeight="1">
+      <c r="D32" s="11"/>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
+      <c r="D33" s="28"/>
+      <c r="E33" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1865,5 +1974,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/todo_list.xlsx
+++ b/todo_list.xlsx
@@ -133,7 +133,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -171,6 +171,11 @@
       <sz val="12"/>
       <color indexed="10"/>
       <name val="Avenir Next Medium"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Avenir Next Demi Bold"/>
     </font>
   </fonts>
   <fills count="3">
@@ -612,15 +617,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>73152</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>53975</xdr:rowOff>
+      <xdr:rowOff>54927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>2893568</xdr:colOff>
+      <xdr:colOff>2990088</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>88265</xdr:rowOff>
+      <xdr:rowOff>74612</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -629,8 +634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="73152" y="7678420"/>
-          <a:ext cx="2820417" cy="321311"/>
+          <a:off x="-11685" y="7679372"/>
+          <a:ext cx="2990089" cy="306706"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -668,7 +673,7 @@
             <a:buFontTx/>
             <a:buNone/>
             <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="950" u="none">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -683,7 +688,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none">
+            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="950" u="none">
               <a:ln>
                 <a:noFill/>
               </a:ln>
@@ -696,7 +701,7 @@
               <a:cs typeface="+mn-cs"/>
               <a:sym typeface="Avenir Next Demi Bold"/>
             </a:rPr>
-            <a:t>(not help you survive, be productive or thrive)</a:t>
+            <a:t>(does not help you survive, be productive or thrive)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>

--- a/todo_list.xlsx
+++ b/todo_list.xlsx
@@ -1,20 +1,135 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanlevin/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5909FBF0-0CB0-6247-BE1A-D01B825ECA0B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Checklist" sheetId="1" r:id="rId4"/>
+    <sheet name="Checklist" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Weekly To-Do list</t>
+    <t>Evolutionary ‘steps’ Weekly To-Do list</t>
+  </si>
+  <si>
+    <t>Categorised Hierarchy for Action Items</t>
+  </si>
+  <si>
+    <t>Must do (when) / Should do / Could do</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>Survive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Demi Bold"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>(what do you need to do to survive the week)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t>Productive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>(what can you do this week to be productive)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Evolve </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>(More resilient, adaptive to surprises, learning. Simplify, minimise, systematise and reduce frustration and anxiety)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Heavy"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Thrive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+        <family val="2"/>
+      </rPr>
+      <t>(pursuit of happiness, incrementally make your life more valuable to you, what would you miss dearly?)</t>
+    </r>
+  </si>
+  <si>
+    <t>Things to Cease Doing or RePrioritise</t>
   </si>
   <si>
     <r>
@@ -22,50 +137,18 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="Avenir Next Heavy"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Things to-do to </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
-      </rPr>
-      <t>Survive</t>
+      <t xml:space="preserve">Stop </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
+        <rFont val="Avenir Next Medium"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> the week</t>
-    </r>
-  </si>
-  <si>
-    <t>How long?</t>
-  </si>
-  <si>
-    <t>When to-do?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
-      </rPr>
-      <t xml:space="preserve">Things to do to be </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
-      </rPr>
-      <t>Productive</t>
+      <t>(doing things that don't help you survive, produce, evolve or thrive)</t>
     </r>
   </si>
   <si>
@@ -74,25 +157,18 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="Avenir Next Heavy"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Things to do to </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
-      </rPr>
-      <t xml:space="preserve">Thrive </t>
+      <t xml:space="preserve">Sacrifice </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="9"/>
-        <rFont val="Avenir Next Demi Bold"/>
+        <rFont val="Avenir Next Medium"/>
+        <family val="2"/>
       </rPr>
-      <t>(Creative, Social, Learning, Incubated Project)</t>
+      <t>(things like expensive habits, hedonic adaptation, addictive games)</t>
     </r>
   </si>
   <si>
@@ -101,81 +177,97 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="Avenir Next Heavy"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Things to </t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
-      </rPr>
-      <t>Stop</t>
+      <t>Shift Attention</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
+        <rFont val="Avenir Next"/>
+        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> doing</t>
+      <t xml:space="preserve"> (to things we have more control over and carry less risk or unintended consequences)</t>
     </r>
-  </si>
-  <si>
-    <t>Things to do instead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
-      <sz val="14"/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Avenir Next"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color indexed="9"/>
       <name val="Avenir Next"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="10"/>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Avenir Next Heavy"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="9"/>
       <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="12"/>
+      <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Avenir Next Demi Bold"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Avenir Next Medium"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Avenir Next"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Avenir Next Heavy"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Avenir Next Heavy"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
-      <name val="Avenir Next Demi Bold"/>
+      <name val="Avenir Next Medium"/>
+      <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Avenir Next Medium"/>
-    </font>
-    <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <color indexed="9"/>
-      <name val="Avenir Next Demi Bold"/>
+      <name val="Avenir Next"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -192,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -202,28 +294,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="dotted">
         <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="dotted">
         <color indexed="13"/>
@@ -234,11 +326,26 @@
       <left style="dotted">
         <color indexed="13"/>
       </left>
-      <right style="dotted">
-        <color indexed="13"/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="dotted">
+        <color indexed="13"/>
+      </right>
+      <top style="dotted">
+        <color indexed="13"/>
       </top>
       <bottom style="dotted">
         <color indexed="13"/>
@@ -250,10 +357,10 @@
         <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="12"/>
+      <top style="dotted">
+        <color indexed="13"/>
       </top>
       <bottom style="dotted">
         <color indexed="13"/>
@@ -262,52 +369,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="dotted">
         <color indexed="13"/>
@@ -324,23 +386,8 @@
       <left style="dotted">
         <color indexed="13"/>
       </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="dotted">
         <color indexed="13"/>
@@ -369,23 +416,8 @@
       <left style="dotted">
         <color indexed="13"/>
       </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
       <right style="thin">
-        <color indexed="16"/>
+        <color indexed="10"/>
       </right>
       <top style="dotted">
         <color indexed="15"/>
@@ -397,7 +429,7 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </left>
       <right style="dotted">
         <color indexed="13"/>
@@ -414,8 +446,8 @@
       <left style="dotted">
         <color indexed="13"/>
       </left>
-      <right style="dotted">
-        <color indexed="13"/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="15"/>
@@ -426,161 +458,164 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="dotted">
+        <color indexed="13"/>
+      </right>
+      <top style="dotted">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="dotted">
         <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
-      <top style="thin">
-        <color indexed="15"/>
+      <top style="dotted">
+        <color indexed="13"/>
       </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
         <color indexed="11"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+      <bottom style="dotted">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="13"/>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
-      <right style="dotted">
-        <color indexed="13"/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="dotted">
         <color indexed="13"/>
       </top>
-      <bottom style="thin">
-        <color indexed="11"/>
+      <bottom style="dotted">
+        <color indexed="13"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="13"/>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </right>
       <top style="dotted">
         <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="26">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,129 +625,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ff6d6d6d"/>
-      <rgbColor rgb="ff323232"/>
-      <rgbColor rgb="ffe3e3e3"/>
-      <rgbColor rgb="ff929292"/>
-      <rgbColor rgb="ffadadad"/>
-      <rgbColor rgb="fff4f9f7"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffbfbfbf"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FF6D6D6D"/>
+      <rgbColor rgb="FFE3E3E3"/>
+      <rgbColor rgb="FF929292"/>
+      <rgbColor rgb="FF323232"/>
+      <rgbColor rgb="FFADADAD"/>
+      <rgbColor rgb="FFF4F9F7"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>54927</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2990088</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>74612</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 2"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="-11685" y="7679372"/>
-          <a:ext cx="2990089" cy="306706"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:extLst>
-          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
-            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" latinLnBrk="0">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="950" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="6D6D6D"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="Avenir Next Heavy"/>
-              <a:ea typeface="Avenir Next Heavy"/>
-              <a:cs typeface="Avenir Next Heavy"/>
-              <a:sym typeface="Avenir Next Heavy"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="950" u="none">
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:solidFill>
-                <a:srgbClr val="6D6D6D"/>
-              </a:solidFill>
-              <a:uFillTx/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Avenir Next Demi Bold"/>
-            </a:rPr>
-            <a:t>(does not help you survive, be productive or thrive)</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08_Checklist">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="08_Checklist">
   <a:themeElements>
     <a:clrScheme name="08_Checklist">
       <a:dk1>
@@ -838,7 +829,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -847,7 +838,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -925,7 +916,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -933,7 +924,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -952,7 +943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -982,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1008,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1034,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1086,7 +1077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1112,7 +1103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1138,7 +1129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1164,7 +1155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1190,7 +1181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1203,9 +1194,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1226,7 +1223,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1245,7 +1242,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1271,7 +1268,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1297,7 +1294,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1323,7 +1320,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1349,7 +1346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1375,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1401,7 +1398,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1427,7 +1424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1453,7 +1450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1479,7 +1476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1492,9 +1489,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1508,7 +1511,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1527,7 +1530,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1557,7 +1560,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1583,7 +1586,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1609,7 +1612,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1635,7 +1638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1661,7 +1664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1687,7 +1690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1713,7 +1716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1739,7 +1742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1765,7 +1768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1778,207 +1781,322 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV55"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.17169" defaultRowHeight="21.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="57.4219" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.9297" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6016" style="1" customWidth="1"/>
-    <col min="4" max="4" width="39.4297" style="26" customWidth="1"/>
-    <col min="5" max="5" width="40.5312" style="26" customWidth="1"/>
-    <col min="6" max="256" width="8.17969" style="26" customWidth="1"/>
+    <col min="1" max="1" width="66.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="80" style="18" customWidth="1"/>
+    <col min="4" max="256" width="8.1640625" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:2" ht="32" customHeight="1">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-    </row>
-    <row r="2" ht="22.6" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" spans="1:2" ht="28.5" customHeight="1">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="4">
+    </row>
+    <row r="3" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" ht="22.85" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-    </row>
-    <row r="4" ht="22.75" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-    </row>
-    <row r="5" ht="22.75" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-    </row>
-    <row r="6" ht="22.75" customHeight="1">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" ht="22.75" customHeight="1">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-    </row>
-    <row r="8" ht="22.75" customHeight="1">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-    </row>
-    <row r="9" ht="22.75" customHeight="1">
-      <c r="A9" t="s" s="17">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+    </row>
+    <row r="5" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+    </row>
+    <row r="8" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+    </row>
+    <row r="9" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+    </row>
+    <row r="10" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-    </row>
-    <row r="10" ht="22.75" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="22"/>
-    </row>
-    <row r="11" ht="22.75" customHeight="1">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" ht="22.75" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-    </row>
-    <row r="13" ht="22.75" customHeight="1">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-    </row>
-    <row r="14" ht="22.75" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-    </row>
-    <row r="15" ht="22.75" customHeight="1">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-    </row>
-    <row r="16" ht="22.75" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="16"/>
-    </row>
-    <row r="17" ht="22.75" customHeight="1">
-      <c r="A17" t="s" s="17">
+      <c r="B11" s="13"/>
+    </row>
+    <row r="12" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="15"/>
+    </row>
+    <row r="13" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+    </row>
+    <row r="19" spans="1:2" ht="32.75" customHeight="1">
+      <c r="A19" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-    </row>
-    <row r="18" ht="22.75" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-    </row>
-    <row r="19" ht="22.75" customHeight="1">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-    </row>
-    <row r="20" ht="22.75" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-    </row>
-    <row r="21" ht="22.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="13"/>
-    </row>
-    <row r="22" ht="22.75" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-    </row>
-    <row r="23" ht="22.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="13"/>
-    </row>
-    <row r="24" ht="22.75" customHeight="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-    </row>
-    <row r="25" ht="22.5" customHeight="1">
-      <c r="A25" s="23"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="27" ht="22.6" customHeight="1">
-      <c r="D27" t="s" s="27">
+      <c r="B19" s="13"/>
+    </row>
+    <row r="20" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="15"/>
+    </row>
+    <row r="21" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A23" s="8"/>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+    </row>
+    <row r="25" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A25" s="8"/>
+      <c r="B25" s="9"/>
+    </row>
+    <row r="26" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:2" ht="32.75" customHeight="1">
+      <c r="A27" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="E27" t="s" s="27">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A28" s="14"/>
+      <c r="B28" s="15"/>
+    </row>
+    <row r="29" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A29" s="8"/>
+      <c r="B29" s="9"/>
+    </row>
+    <row r="30" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A30" s="6"/>
+      <c r="B30" s="7"/>
+    </row>
+    <row r="31" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9"/>
+    </row>
+    <row r="32" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A32" s="6"/>
+      <c r="B32" s="7"/>
+    </row>
+    <row r="33" spans="1:256" ht="20.75" customHeight="1">
+      <c r="A33" s="8"/>
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" spans="1:256" ht="20.5" customHeight="1">
+      <c r="A34" s="16"/>
+      <c r="B34" s="17"/>
+    </row>
+    <row r="36" spans="1:256" ht="22.5" customHeight="1">
+      <c r="A36" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" ht="22.85" customHeight="1">
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" ht="22.75" customHeight="1">
-      <c r="D29" s="8"/>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" ht="22.75" customHeight="1">
-      <c r="D30" s="11"/>
-      <c r="E30" s="13"/>
-    </row>
-    <row r="31" ht="22.75" customHeight="1">
-      <c r="D31" s="8"/>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" ht="22.75" customHeight="1">
-      <c r="D32" s="11"/>
-      <c r="E32" s="13"/>
-    </row>
-    <row r="33" ht="22.5" customHeight="1">
-      <c r="D33" s="28"/>
-      <c r="E33" s="29"/>
+      <c r="B36" s="18"/>
+      <c r="IU36"/>
+      <c r="IV36"/>
+    </row>
+    <row r="37" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A37" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="IU37"/>
+      <c r="IV37"/>
+    </row>
+    <row r="38" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A38" s="21"/>
+      <c r="B38" s="18"/>
+      <c r="IU38"/>
+      <c r="IV38"/>
+    </row>
+    <row r="39" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A39" s="22"/>
+      <c r="B39" s="18"/>
+      <c r="IU39"/>
+      <c r="IV39"/>
+    </row>
+    <row r="40" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A40" s="21"/>
+      <c r="B40" s="18"/>
+      <c r="IU40"/>
+      <c r="IV40"/>
+    </row>
+    <row r="41" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A41" s="22"/>
+      <c r="B41" s="18"/>
+      <c r="IU41"/>
+      <c r="IV41"/>
+    </row>
+    <row r="42" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A42" s="21"/>
+      <c r="B42" s="18"/>
+      <c r="IU42"/>
+      <c r="IV42"/>
+    </row>
+    <row r="43" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A43" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="18"/>
+      <c r="IU43"/>
+      <c r="IV43"/>
+    </row>
+    <row r="44" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A44" s="21"/>
+      <c r="B44" s="18"/>
+      <c r="IU44"/>
+      <c r="IV44"/>
+    </row>
+    <row r="45" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A45" s="22"/>
+      <c r="B45" s="18"/>
+      <c r="IU45"/>
+      <c r="IV45"/>
+    </row>
+    <row r="46" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A46" s="21"/>
+      <c r="B46" s="18"/>
+      <c r="IU46"/>
+      <c r="IV46"/>
+    </row>
+    <row r="47" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A47" s="22"/>
+      <c r="B47" s="18"/>
+      <c r="IU47"/>
+      <c r="IV47"/>
+    </row>
+    <row r="48" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A48" s="21"/>
+      <c r="B48" s="18"/>
+      <c r="IU48"/>
+      <c r="IV48"/>
+    </row>
+    <row r="49" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A49" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="18"/>
+      <c r="IU49"/>
+      <c r="IV49"/>
+    </row>
+    <row r="50" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A50" s="21"/>
+      <c r="B50" s="18"/>
+      <c r="IU50"/>
+      <c r="IV50"/>
+    </row>
+    <row r="51" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A51" s="22"/>
+      <c r="B51" s="18"/>
+      <c r="IU51"/>
+      <c r="IV51"/>
+    </row>
+    <row r="52" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A52" s="21"/>
+      <c r="B52" s="18"/>
+      <c r="IU52"/>
+      <c r="IV52"/>
+    </row>
+    <row r="53" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A53" s="22"/>
+      <c r="B53" s="18"/>
+      <c r="IU53"/>
+      <c r="IV53"/>
+    </row>
+    <row r="54" spans="1:256" ht="22.75" customHeight="1">
+      <c r="A54" s="21"/>
+      <c r="B54" s="18"/>
+      <c r="IU54"/>
+      <c r="IV54"/>
+    </row>
+    <row r="55" spans="1:256" ht="22.5" customHeight="1">
+      <c r="A55" s="24"/>
+      <c r="B55" s="18"/>
+      <c r="IU55"/>
+      <c r="IV55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/todo_list.xlsx
+++ b/todo_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanlevin/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanlevin/Documents/primacy_todo_list/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{5909FBF0-0CB0-6247-BE1A-D01B825ECA0B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AB8B22A1-2896-D64B-BB1E-986013B0B798}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Evolutionary ‘steps’ Weekly To-Do list</t>
   </si>
   <si>
-    <t>Categorised Hierarchy for Action Items</t>
+    <t>Must do (When) /Should do / Could do</t>
   </si>
   <si>
-    <t>Must do (when) / Should do / Could do</t>
+    <t>Categorised Hierarchy for Action Items</t>
   </si>
   <si>
     <r>
@@ -36,27 +36,26 @@
         <sz val="9"/>
         <color indexed="9"/>
         <rFont val="Avenir Next Heavy"/>
-        <family val="2"/>
       </rPr>
       <t>Survive</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color indexed="9"/>
         <rFont val="Avenir Next Demi Bold"/>
-        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>W</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
-        <family val="2"/>
       </rPr>
-      <t>(what do you need to do to survive the week)</t>
+      <t>hat do you need to do to survive the week?</t>
     </r>
   </si>
   <si>
@@ -65,27 +64,94 @@
         <sz val="9"/>
         <color indexed="9"/>
         <rFont val="Avenir Next Heavy"/>
-        <family val="2"/>
       </rPr>
       <t>Productive</t>
     </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="9"/>
         <color indexed="9"/>
         <rFont val="Avenir Next"/>
-        <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> </t>
+      <t>W</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
         <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
-        <family val="2"/>
       </rPr>
-      <t>(what can you do this week to be productive)</t>
+      <t>hat can you do this week to be productive?</t>
+    </r>
+  </si>
+  <si>
+    <t>Evolve</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+      </rPr>
+      <t>More resilient, adaptive to change, learning. Simplify, systematise, reduce frustration and anxiety.</t>
+    </r>
+  </si>
+  <si>
+    <t>Thrive</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+      </rPr>
+      <t>Pursuit of happiness. Incrementally make your life more valuable to you. What would you miss dearly?</t>
+    </r>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next"/>
+      </rPr>
+      <t>D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+      </rPr>
+      <t>oing things that don't help you survive, produce, evolve or thrive.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next"/>
+      </rPr>
+      <t>E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+      </rPr>
+      <t>xpensive habits, hedonic adaptation, addictive games.</t>
     </r>
   </si>
   <si>
@@ -94,102 +160,12 @@
         <sz val="9"/>
         <color indexed="9"/>
         <rFont val="Avenir Next Heavy"/>
-        <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Evolve </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Medium"/>
-        <family val="2"/>
-      </rPr>
-      <t>(More resilient, adaptive to surprises, learning. Simplify, minimise, systematise and reduce frustration and anxiety)</t>
+      <t>Shift Attention</t>
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Thrive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Medium"/>
-        <family val="2"/>
-      </rPr>
-      <t>(pursuit of happiness, incrementally make your life more valuable to you, what would you miss dearly?)</t>
-    </r>
-  </si>
-  <si>
-    <t>Things to Cease Doing or RePrioritise</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Stop </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Medium"/>
-        <family val="2"/>
-      </rPr>
-      <t>(doing things that don't help you survive, produce, evolve or thrive)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Sacrifice </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Medium"/>
-        <family val="2"/>
-      </rPr>
-      <t>(things like expensive habits, hedonic adaptation, addictive games)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
-        <family val="2"/>
-      </rPr>
-      <t>Shift Attention</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (to things we have more control over and carry less risk or unintended consequences)</t>
-    </r>
+    <t>to things you have more control over and carry less risk or unintended consequences</t>
   </si>
 </sst>
 </file>
@@ -206,68 +182,57 @@
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color indexed="9"/>
       <name val="Avenir Next"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="9"/>
+      <name val="Avenir Next Heavy"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Avenir Next Heavy"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color indexed="9"/>
-      <name val="Avenir Next Demi Bold"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="12"/>
       <name val="Avenir Next Demi Bold"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Avenir Next Demi Bold"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Avenir Next Medium"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Avenir Next"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Avenir Next Heavy"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="Avenir Next"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Avenir Next Medium"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Avenir Next"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -284,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -383,21 +348,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="16"/>
       </left>
@@ -413,41 +363,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="dotted">
-        <color indexed="15"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="15"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="10"/>
       </left>
       <right style="dotted">
         <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="15"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="15"/>
@@ -487,58 +407,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -549,73 +424,94 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1800,27 +1696,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV55"/>
+  <dimension ref="A1:IV36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="66.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="80" style="18" customWidth="1"/>
-    <col min="4" max="256" width="8.1640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.5" style="17" customWidth="1"/>
+    <col min="3" max="256" width="8.1640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="32" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:2" ht="28.5" customHeight="1">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:2" ht="38.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1829,274 +1724,174 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-    </row>
-    <row r="5" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-    </row>
-    <row r="7" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A8" s="6"/>
-      <c r="B8" s="7"/>
-    </row>
-    <row r="9" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-    </row>
-    <row r="11" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="13"/>
-    </row>
-    <row r="12" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-    </row>
-    <row r="17" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-    </row>
-    <row r="19" spans="1:2" ht="32.75" customHeight="1">
-      <c r="A19" s="12" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A4" s="19"/>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A5" s="20"/>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A6" s="19"/>
+      <c r="B6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="7"/>
+    </row>
+    <row r="8" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A8" s="19"/>
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="7"/>
+    </row>
+    <row r="10" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A10" s="21"/>
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A11" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-    </row>
-    <row r="21" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A22" s="6"/>
-      <c r="B22" s="7"/>
-    </row>
-    <row r="23" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A24" s="6"/>
-      <c r="B24" s="7"/>
-    </row>
-    <row r="25" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-    </row>
-    <row r="27" spans="1:2" ht="32.75" customHeight="1">
-      <c r="A27" s="12" t="s">
+      <c r="B11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-    </row>
-    <row r="29" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A29" s="8"/>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A30" s="6"/>
-      <c r="B30" s="7"/>
-    </row>
-    <row r="31" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A31" s="8"/>
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A32" s="6"/>
-      <c r="B32" s="7"/>
-    </row>
-    <row r="33" spans="1:256" ht="20.75" customHeight="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" spans="1:256" ht="20.5" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-    </row>
-    <row r="36" spans="1:256" ht="22.5" customHeight="1">
-      <c r="A36" s="19" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A14" s="19"/>
+      <c r="B14" s="6"/>
+    </row>
+    <row r="15" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A15" s="20"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A16" s="19"/>
+      <c r="B16" s="6"/>
+    </row>
+    <row r="17" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A17" s="20"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="6"/>
+    </row>
+    <row r="19" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A19" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="18"/>
-      <c r="IU36"/>
-      <c r="IV36"/>
-    </row>
-    <row r="37" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A37" s="20" t="s">
+      <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="18"/>
-      <c r="IU37"/>
-      <c r="IV37"/>
-    </row>
-    <row r="38" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A38" s="21"/>
-      <c r="B38" s="18"/>
-      <c r="IU38"/>
-      <c r="IV38"/>
-    </row>
-    <row r="39" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A39" s="22"/>
-      <c r="B39" s="18"/>
-      <c r="IU39"/>
-      <c r="IV39"/>
-    </row>
-    <row r="40" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A40" s="21"/>
-      <c r="B40" s="18"/>
-      <c r="IU40"/>
-      <c r="IV40"/>
-    </row>
-    <row r="41" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="18"/>
-      <c r="IU41"/>
-      <c r="IV41"/>
-    </row>
-    <row r="42" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="18"/>
-      <c r="IU42"/>
-      <c r="IV42"/>
-    </row>
-    <row r="43" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A43" s="23" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A20" s="23"/>
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A21" s="20"/>
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A23" s="25"/>
+      <c r="B23" s="7"/>
+    </row>
+    <row r="24" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A24" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="18"/>
-      <c r="IU43"/>
-      <c r="IV43"/>
-    </row>
-    <row r="44" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="18"/>
-      <c r="IU44"/>
-      <c r="IV44"/>
-    </row>
-    <row r="45" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A45" s="22"/>
-      <c r="B45" s="18"/>
-      <c r="IU45"/>
-      <c r="IV45"/>
-    </row>
-    <row r="46" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="18"/>
-      <c r="IU46"/>
-      <c r="IV46"/>
-    </row>
-    <row r="47" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A47" s="22"/>
-      <c r="B47" s="18"/>
-      <c r="IU47"/>
-      <c r="IV47"/>
-    </row>
-    <row r="48" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="18"/>
-      <c r="IU48"/>
-      <c r="IV48"/>
-    </row>
-    <row r="49" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A49" s="22" t="s">
+      <c r="B24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B49" s="18"/>
-      <c r="IU49"/>
-      <c r="IV49"/>
-    </row>
-    <row r="50" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="18"/>
-      <c r="IU50"/>
-      <c r="IV50"/>
-    </row>
-    <row r="51" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A51" s="22"/>
-      <c r="B51" s="18"/>
-      <c r="IU51"/>
-      <c r="IV51"/>
-    </row>
-    <row r="52" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A52" s="21"/>
-      <c r="B52" s="18"/>
-      <c r="IU52"/>
-      <c r="IV52"/>
-    </row>
-    <row r="53" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A53" s="22"/>
-      <c r="B53" s="18"/>
-      <c r="IU53"/>
-      <c r="IV53"/>
-    </row>
-    <row r="54" spans="1:256" ht="22.75" customHeight="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="18"/>
-      <c r="IU54"/>
-      <c r="IV54"/>
-    </row>
-    <row r="55" spans="1:256" ht="22.5" customHeight="1">
-      <c r="A55" s="24"/>
-      <c r="B55" s="18"/>
-      <c r="IU55"/>
-      <c r="IV55"/>
+    </row>
+    <row r="25" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A25" s="27"/>
+      <c r="B25" s="7"/>
+    </row>
+    <row r="26" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="6"/>
+    </row>
+    <row r="27" spans="1:2" ht="20.75" customHeight="1">
+      <c r="A27" s="20"/>
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:2" ht="22.75" customHeight="1">
+      <c r="A28" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="22.75" customHeight="1">
+      <c r="A29" s="29"/>
+      <c r="B29" s="11"/>
+    </row>
+    <row r="30" spans="1:2" ht="22.75" customHeight="1">
+      <c r="A30" s="28"/>
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="1:2" ht="22.75" customHeight="1">
+      <c r="A31" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="22.75" customHeight="1">
+      <c r="A32" s="28"/>
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="1:2" ht="22.75" customHeight="1">
+      <c r="A33" s="29"/>
+      <c r="B33" s="11"/>
+    </row>
+    <row r="34" spans="1:2" ht="32.75" customHeight="1">
+      <c r="A34" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="22.75" customHeight="1">
+      <c r="A35" s="31"/>
+      <c r="B35" s="15"/>
+    </row>
+    <row r="36" spans="1:2" ht="22.5" customHeight="1">
+      <c r="A36" s="32"/>
+      <c r="B36" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="0.25" bottom="0" header="0.25" footer="0"/>
+  <pageSetup scale="93" orientation="portrait"/>
 </worksheet>
 </file>
--- a/todo_list.xlsx
+++ b/todo_list.xlsx
@@ -1,26 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanlevin/Documents/primacy_todo_list/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{AB8B22A1-2896-D64B-BB1E-986013B0B798}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Checklist" sheetId="1" r:id="rId1"/>
+    <sheet name="Checklist" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Evolutionary ‘steps’ Weekly To-Do list</t>
   </si>
@@ -165,13 +157,16 @@
     </r>
   </si>
   <si>
-    <t>to things you have more control over and carry less risk or unintended consequences</t>
+    <t>To things you have more control over and carry less risk or unintended consequences</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -184,7 +179,7 @@
       <name val="Avenir Next"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="13"/>
       <color indexed="9"/>
       <name val="Avenir Next"/>
@@ -409,109 +404,91 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,85 +498,30 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FF6D6D6D"/>
-      <rgbColor rgb="FFE3E3E3"/>
-      <rgbColor rgb="FF929292"/>
-      <rgbColor rgb="FF323232"/>
-      <rgbColor rgb="FFADADAD"/>
-      <rgbColor rgb="FFF4F9F7"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFBFBFBF"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ff6d6d6d"/>
+      <rgbColor rgb="ffe3e3e3"/>
+      <rgbColor rgb="ff929292"/>
+      <rgbColor rgb="ff323232"/>
+      <rgbColor rgb="ffadadad"/>
+      <rgbColor rgb="fff4f9f7"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffbfbfbf"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="08_Checklist">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="08_Checklist">
   <a:themeElements>
     <a:clrScheme name="08_Checklist">
       <a:dk1>
@@ -725,7 +647,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -734,7 +656,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -812,7 +734,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="12700" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -820,7 +742,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -839,7 +761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -869,7 +791,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -895,7 +817,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -921,7 +843,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +869,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -973,7 +895,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -999,7 +921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1025,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1051,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1077,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1090,15 +1012,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1119,7 +1035,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1138,7 +1054,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1164,7 +1080,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1190,7 +1106,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1216,7 +1132,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,7 +1158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1268,7 +1184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1294,7 +1210,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1320,7 +1236,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1346,7 +1262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1372,7 +1288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1385,15 +1301,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1407,7 +1317,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1426,7 +1336,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1000" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1000" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1456,7 +1366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,7 +1392,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1508,7 +1418,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1534,7 +1444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1560,7 +1470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1586,7 +1496,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1612,7 +1522,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1638,7 +1548,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1664,7 +1574,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1677,221 +1587,212 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV36"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:B36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.1640625" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.17169" defaultRowHeight="20.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5" style="17" customWidth="1"/>
-    <col min="3" max="256" width="8.1640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.4844" style="1" customWidth="1"/>
+    <col min="2" max="2" width="75.5312" style="1" customWidth="1"/>
+    <col min="3" max="256" width="8.17969" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="32" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" ht="32" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-    </row>
-    <row r="2" spans="1:2" ht="38.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+    </row>
+    <row r="2" ht="38.6" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A3" s="18" t="s">
+    <row r="3" ht="20.85" customHeight="1">
+      <c r="A3" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A4" s="19"/>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A6" s="19"/>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="7"/>
-    </row>
-    <row r="8" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A8" s="19"/>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="7"/>
-    </row>
-    <row r="10" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A10" s="21"/>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A11" s="22" t="s">
+    <row r="4" ht="20.75" customHeight="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+    </row>
+    <row r="5" ht="20.75" customHeight="1">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" ht="20.75" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+    </row>
+    <row r="7" ht="20.75" customHeight="1">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" ht="20.75" customHeight="1">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" ht="20.75" customHeight="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" ht="20.75" customHeight="1">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" ht="20.75" customHeight="1">
+      <c r="A11" t="s" s="12">
         <v>5</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="6"/>
-    </row>
-    <row r="13" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="7"/>
-    </row>
-    <row r="18" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A19" s="24" t="s">
+    <row r="12" ht="20.75" customHeight="1">
+      <c r="A12" s="14"/>
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" ht="20.75" customHeight="1">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" ht="20.75" customHeight="1">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" ht="20.75" customHeight="1">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" ht="20.75" customHeight="1">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" ht="20.75" customHeight="1">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+    </row>
+    <row r="18" ht="20.75" customHeight="1">
+      <c r="A18" s="11"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" ht="20.75" customHeight="1">
+      <c r="A19" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" t="s" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="7"/>
-    </row>
-    <row r="22" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A23" s="25"/>
-      <c r="B23" s="7"/>
-    </row>
-    <row r="24" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A24" s="26" t="s">
+    <row r="20" ht="20.75" customHeight="1">
+      <c r="A20" s="14"/>
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" ht="20.75" customHeight="1">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" ht="20.75" customHeight="1">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" ht="20.75" customHeight="1">
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" ht="20.75" customHeight="1">
+      <c r="A24" s="11"/>
+      <c r="B24" s="8"/>
+    </row>
+    <row r="25" ht="20.75" customHeight="1">
+      <c r="A25" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B25" t="s" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A25" s="27"/>
-      <c r="B25" s="7"/>
-    </row>
-    <row r="26" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="1:2" ht="20.75" customHeight="1">
-      <c r="A27" s="20"/>
-      <c r="B27" s="7"/>
-    </row>
-    <row r="28" spans="1:2" ht="22.75" customHeight="1">
-      <c r="A28" s="28" t="s">
+    <row r="26" ht="20.75" customHeight="1">
+      <c r="A26" s="14"/>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" ht="20.75" customHeight="1">
+      <c r="A27" s="9"/>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" ht="20.75" customHeight="1">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+    </row>
+    <row r="29" ht="20.75" customHeight="1">
+      <c r="A29" s="9"/>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" ht="22.75" customHeight="1">
+      <c r="A30" t="s" s="16">
         <v>11</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B30" t="s" s="17">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="22.75" customHeight="1">
-      <c r="A29" s="29"/>
-      <c r="B29" s="11"/>
-    </row>
-    <row r="30" spans="1:2" ht="22.75" customHeight="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="12"/>
-    </row>
-    <row r="31" spans="1:2" ht="22.75" customHeight="1">
-      <c r="A31" s="29" t="s">
+    <row r="31" ht="22.75" customHeight="1">
+      <c r="A31" t="s" s="18">
         <v>13</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" t="s" s="19">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="22.75" customHeight="1">
-      <c r="A32" s="28"/>
-      <c r="B32" s="12"/>
-    </row>
-    <row r="33" spans="1:2" ht="22.75" customHeight="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="11"/>
-    </row>
-    <row r="34" spans="1:2" ht="32.75" customHeight="1">
-      <c r="A34" s="30" t="s">
+    <row r="32" ht="32.75" customHeight="1">
+      <c r="A32" t="s" s="20">
         <v>15</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B32" t="s" s="21">
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="22.75" customHeight="1">
-      <c r="A35" s="31"/>
-      <c r="B35" s="15"/>
-    </row>
-    <row r="36" spans="1:2" ht="22.5" customHeight="1">
-      <c r="A36" s="32"/>
-      <c r="B36" s="16"/>
+    <row r="33" ht="20.75" customHeight="1">
+      <c r="A33" s="22"/>
+      <c r="B33" s="10"/>
+    </row>
+    <row r="34" ht="22.75" customHeight="1">
+      <c r="A34" s="16"/>
+      <c r="B34" s="23"/>
+    </row>
+    <row r="35" ht="22.75" customHeight="1">
+      <c r="A35" s="18"/>
+      <c r="B35" s="24"/>
+    </row>
+    <row r="36" ht="22.5" customHeight="1">
+      <c r="A36" s="25"/>
+      <c r="B36" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0" header="0.25" footer="0"/>
-  <pageSetup scale="93" orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="93" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
 </worksheet>
 </file>
--- a/todo_list.xlsx
+++ b/todo_list.xlsx
@@ -12,9 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
   <si>
-    <t>Evolutionary ‘steps’ Weekly To-Do list</t>
+    <t>Evolutionary ‘step’ Weekly To-Do list</t>
   </si>
   <si>
     <t>Must do (When) /Should do / Could do</t>
@@ -84,11 +84,20 @@
   <si>
     <r>
       <rPr>
+        <u val="single"/>
         <sz val="9"/>
         <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t>More resilient, adaptive to change, learning. Simplify, systematise, reduce frustration and anxiety.</t>
+      <t>Increase productivity and be adaptive to change</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+      </rPr>
+      <t xml:space="preserve">. Improve, learn, automate, simplify, systematise. Prioritise long term high value activities and identify risk of unintended consequences.  </t>
     </r>
   </si>
   <si>
@@ -105,59 +114,17 @@
     </r>
   </si>
   <si>
-    <t>Stop</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next"/>
-      </rPr>
-      <t>D</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Medium"/>
-      </rPr>
-      <t>oing things that don't help you survive, produce, evolve or thrive.</t>
-    </r>
-  </si>
-  <si>
-    <t>Sacrifice</t>
+    <t>Waste</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="9"/>
-        <rFont val="Avenir Next"/>
-      </rPr>
-      <t>E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t>xpensive habits, hedonic adaptation, addictive games.</t>
+      <t>Stop wasting your resources, time or energy. Reduce hedonic adaptation like expensive habits. Withdraw from addictive games with little benefits. To reduce anxiety and frustration, focus on things you can control (ultimately, yourself).</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
-      </rPr>
-      <t>Shift Attention</t>
-    </r>
-  </si>
-  <si>
-    <t>To things you have more control over and carry less risk or unintended consequences</t>
   </si>
 </sst>
 </file>
@@ -167,7 +134,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -215,6 +182,12 @@
       <name val="Avenir Next"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="9"/>
+      <color indexed="9"/>
+      <name val="Avenir Next Medium"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Avenir Next Heavy"/>
@@ -222,12 +195,12 @@
     <font>
       <sz val="10"/>
       <color indexed="9"/>
-      <name val="Avenir Next"/>
+      <name val="Avenir Next Medium"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
-      <name val="Avenir Next Medium"/>
+      <name val="Avenir Next"/>
     </font>
   </fonts>
   <fills count="3">
@@ -408,7 +381,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -457,37 +430,34 @@
     <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1696,7 +1666,7 @@
       <c r="A18" s="11"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" ht="20.75" customHeight="1">
+    <row r="19" ht="32.75" customHeight="1">
       <c r="A19" t="s" s="15">
         <v>7</v>
       </c>
@@ -1749,28 +1719,20 @@
       <c r="B29" s="10"/>
     </row>
     <row r="30" ht="22.75" customHeight="1">
-      <c r="A30" t="s" s="16">
+      <c r="A30" s="16"/>
+      <c r="B30" s="17"/>
+    </row>
+    <row r="31" ht="50.75" customHeight="1">
+      <c r="A31" t="s" s="18">
         <v>11</v>
       </c>
-      <c r="B30" t="s" s="17">
+      <c r="B31" t="s" s="19">
         <v>12</v>
       </c>
     </row>
-    <row r="31" ht="22.75" customHeight="1">
-      <c r="A31" t="s" s="18">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s" s="19">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" ht="32.75" customHeight="1">
-      <c r="A32" t="s" s="20">
-        <v>15</v>
-      </c>
-      <c r="B32" t="s" s="21">
-        <v>16</v>
-      </c>
+    <row r="32" ht="22.75" customHeight="1">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
     </row>
     <row r="33" ht="20.75" customHeight="1">
       <c r="A33" s="22"/>
@@ -1778,15 +1740,15 @@
     </row>
     <row r="34" ht="22.75" customHeight="1">
       <c r="A34" s="16"/>
-      <c r="B34" s="23"/>
+      <c r="B34" s="17"/>
     </row>
     <row r="35" ht="22.75" customHeight="1">
       <c r="A35" s="18"/>
-      <c r="B35" s="24"/>
+      <c r="B35" s="23"/>
     </row>
     <row r="36" ht="22.5" customHeight="1">
-      <c r="A36" s="25"/>
-      <c r="B36" s="26"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/todo_list.xlsx
+++ b/todo_list.xlsx
@@ -6,21 +6,21 @@
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Checklist" sheetId="1" r:id="rId4"/>
+    <sheet name="Checklist - Primacy Weekly To-D" sheetId="1" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
-    <t>Evolutionary ‘step’ Weekly To-Do list</t>
+    <t>Primacy Weekly To-Do list</t>
   </si>
   <si>
-    <t>Must do (When) /Should do / Could do</t>
+    <t>Do on which day?</t>
   </si>
   <si>
-    <t>Categorised Hierarchy for Action Items</t>
+    <t>Categories</t>
   </si>
   <si>
     <r>
@@ -47,7 +47,24 @@
         <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t>hat do you need to do to survive the week?</t>
+      <t xml:space="preserve">hat are the bare minimum things you need to do to </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+      </rPr>
+      <t>survive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+      </rPr>
+      <t xml:space="preserve"> the week?</t>
     </r>
   </si>
   <si>
@@ -75,13 +92,8 @@
         <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t>hat can you do this week to be productive?</t>
+      <t xml:space="preserve">hat things should you do this week to be </t>
     </r>
-  </si>
-  <si>
-    <t>Evolve</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -89,7 +101,7 @@
         <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t>Increase productivity and be adaptive to change</t>
+      <t>productive</t>
     </r>
     <r>
       <rPr>
@@ -97,7 +109,7 @@
         <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t xml:space="preserve">. Improve, learn, automate, simplify, systematise. Prioritise long term high value activities and identify risk of unintended consequences.  </t>
+      <t>?</t>
     </r>
   </si>
   <si>
@@ -110,20 +122,54 @@
         <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t>Pursuit of happiness. Incrementally make your life more valuable to you. What would you miss dearly?</t>
+      <t xml:space="preserve">What things can you to this week to </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+      </rPr>
+      <t>pursue your own happiness</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+      </rPr>
+      <t>?</t>
     </r>
   </si>
   <si>
-    <t>Waste</t>
+    <t>Impedements</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="9"/>
         <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t>Stop wasting your resources, time or energy. Reduce hedonic adaptation like expensive habits. Withdraw from addictive games with little benefits. To reduce anxiety and frustration, focus on things you can control (ultimately, yourself).</t>
+      <t xml:space="preserve">What things are </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+      </rPr>
+      <t>slowing you down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="9"/>
+        <rFont val="Avenir Next Medium"/>
+      </rPr>
+      <t xml:space="preserve"> from reaching your goals?</t>
     </r>
   </si>
 </sst>
@@ -134,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -177,25 +223,20 @@
       <name val="Avenir Next Medium"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="9"/>
-      <name val="Avenir Next"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="9"/>
       <color indexed="9"/>
       <name val="Avenir Next Medium"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9"/>
       <color indexed="9"/>
-      <name val="Avenir Next Heavy"/>
+      <name val="Avenir Next"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
-      <name val="Avenir Next Medium"/>
+      <name val="Avenir Next Heavy"/>
     </font>
     <font>
       <sz val="10"/>
@@ -381,7 +422,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -427,7 +468,16 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -436,28 +486,37 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="10" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="11" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1569,13 +1628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B36"/>
+  <dimension ref="A2:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17169" defaultRowHeight="20.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.4844" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7656" style="1" customWidth="1"/>
     <col min="2" max="2" width="75.5312" style="1" customWidth="1"/>
     <col min="3" max="256" width="8.17969" style="1" customWidth="1"/>
   </cols>
@@ -1586,7 +1645,7 @@
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" ht="38.6" customHeight="1">
+    <row r="2" ht="20.6" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
@@ -1663,23 +1722,23 @@
       <c r="B17" s="10"/>
     </row>
     <row r="18" ht="20.75" customHeight="1">
-      <c r="A18" s="11"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="8"/>
     </row>
-    <row r="19" ht="32.75" customHeight="1">
-      <c r="A19" t="s" s="15">
+    <row r="19" ht="20.75" customHeight="1">
+      <c r="A19" s="15"/>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" ht="20.75" customHeight="1">
+      <c r="A20" t="s" s="16">
         <v>7</v>
       </c>
-      <c r="B19" t="s" s="13">
+      <c r="B20" t="s" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="20" ht="20.75" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="8"/>
-    </row>
     <row r="21" ht="20.75" customHeight="1">
-      <c r="A21" s="9"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="10"/>
     </row>
     <row r="22" ht="20.75" customHeight="1">
@@ -1691,70 +1750,54 @@
       <c r="B23" s="10"/>
     </row>
     <row r="24" ht="20.75" customHeight="1">
-      <c r="A24" s="11"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="8"/>
     </row>
     <row r="25" ht="20.75" customHeight="1">
-      <c r="A25" t="s" s="15">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" ht="22.75" customHeight="1">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+    </row>
+    <row r="27" ht="20.75" customHeight="1">
+      <c r="A27" t="s" s="21">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="13">
+      <c r="B27" t="s" s="22">
         <v>10</v>
       </c>
     </row>
-    <row r="26" ht="20.75" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="8"/>
-    </row>
-    <row r="27" ht="20.75" customHeight="1">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-    </row>
-    <row r="28" ht="20.75" customHeight="1">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" ht="20.75" customHeight="1">
-      <c r="A29" s="9"/>
-      <c r="B29" s="10"/>
-    </row>
-    <row r="30" ht="22.75" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
-    </row>
-    <row r="31" ht="50.75" customHeight="1">
-      <c r="A31" t="s" s="18">
-        <v>11</v>
-      </c>
-      <c r="B31" t="s" s="19">
-        <v>12</v>
-      </c>
+    <row r="28" ht="22.75" customHeight="1">
+      <c r="A28" s="23"/>
+      <c r="B28" s="24"/>
+    </row>
+    <row r="29" ht="22.75" customHeight="1">
+      <c r="A29" s="25"/>
+      <c r="B29" s="26"/>
+    </row>
+    <row r="30" ht="20.75" customHeight="1">
+      <c r="A30" s="27"/>
+      <c r="B30" s="8"/>
+    </row>
+    <row r="31" ht="22.75" customHeight="1">
+      <c r="A31" s="28"/>
+      <c r="B31" s="29"/>
     </row>
     <row r="32" ht="22.75" customHeight="1">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-    </row>
-    <row r="33" ht="20.75" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="10"/>
-    </row>
-    <row r="34" ht="22.75" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="17"/>
-    </row>
-    <row r="35" ht="22.75" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="23"/>
-    </row>
-    <row r="36" ht="22.5" customHeight="1">
-      <c r="A36" s="24"/>
-      <c r="B36" s="25"/>
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+    </row>
+    <row r="33" ht="22.5" customHeight="1">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="0.25" bottom="0" header="0.25" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="93" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="91" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
 </worksheet>
 </file>
--- a/todo_list.xlsx
+++ b/todo_list.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Primacy Weekly To-Do list</t>
   </si>
@@ -143,7 +143,32 @@
     </r>
   </si>
   <si>
-    <t>Impedements</t>
+    <t>Purpose/Work</t>
+  </si>
+  <si>
+    <t>Family/Friends</t>
+  </si>
+  <si>
+    <t>Health/Energy</t>
+  </si>
+  <si>
+    <t>Learn/Discover</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color indexed="17"/>
+        <rFont val="Avenir Next"/>
+      </rPr>
+      <t>Create/Build</t>
+    </r>
+  </si>
+  <si>
+    <t>Fun/Happiness</t>
+  </si>
+  <si>
+    <t>Stop</t>
   </si>
   <si>
     <r>
@@ -152,7 +177,7 @@
         <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t xml:space="preserve">What things are </t>
+      <t xml:space="preserve">What things should you </t>
     </r>
     <r>
       <rPr>
@@ -161,7 +186,7 @@
         <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t>slowing you down</t>
+      <t>stop doing</t>
     </r>
     <r>
       <rPr>
@@ -169,7 +194,7 @@
         <color indexed="9"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t xml:space="preserve"> from reaching your goals?</t>
+      <t xml:space="preserve"> that take you further away from your goals and your happiness?</t>
     </r>
   </si>
 </sst>
@@ -180,7 +205,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -231,6 +256,11 @@
     <font>
       <sz val="9"/>
       <color indexed="9"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="17"/>
       <name val="Avenir Next"/>
     </font>
     <font>
@@ -422,7 +452,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -480,43 +510,52 @@
     <xf numFmtId="49" fontId="1" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="11" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="12" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -544,6 +583,7 @@
       <rgbColor rgb="fff4f9f7"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffbfbfbf"/>
+      <rgbColor rgb="ffb8b8b8"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1628,7 +1668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:B33"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1739,65 +1782,85 @@
     </row>
     <row r="21" ht="20.75" customHeight="1">
       <c r="A21" s="18"/>
-      <c r="B21" s="10"/>
+      <c r="B21" t="s" s="19">
+        <v>9</v>
+      </c>
     </row>
     <row r="22" ht="20.75" customHeight="1">
       <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
+      <c r="B22" t="s" s="20">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" ht="20.75" customHeight="1">
       <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
+      <c r="B23" t="s" s="19">
+        <v>11</v>
+      </c>
     </row>
     <row r="24" ht="20.75" customHeight="1">
       <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
+      <c r="B24" t="s" s="20">
+        <v>12</v>
+      </c>
     </row>
     <row r="25" ht="20.75" customHeight="1">
       <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
+      <c r="B25" t="s" s="19">
+        <v>13</v>
+      </c>
     </row>
     <row r="26" ht="22.75" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
+      <c r="A26" s="21"/>
+      <c r="B26" t="s" s="20">
+        <v>14</v>
+      </c>
     </row>
     <row r="27" ht="20.75" customHeight="1">
-      <c r="A27" t="s" s="21">
-        <v>9</v>
+      <c r="A27" s="22"/>
+      <c r="B27" s="23"/>
+    </row>
+    <row r="28" ht="20.75" customHeight="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+    </row>
+    <row r="29" ht="20.75" customHeight="1">
+      <c r="A29" t="s" s="22">
+        <v>15</v>
       </c>
-      <c r="B27" t="s" s="22">
-        <v>10</v>
+      <c r="B29" t="s" s="26">
+        <v>16</v>
       </c>
     </row>
-    <row r="28" ht="22.75" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="24"/>
-    </row>
-    <row r="29" ht="22.75" customHeight="1">
-      <c r="A29" s="25"/>
-      <c r="B29" s="26"/>
-    </row>
-    <row r="30" ht="20.75" customHeight="1">
+    <row r="30" ht="22.75" customHeight="1">
       <c r="A30" s="27"/>
-      <c r="B30" s="8"/>
+      <c r="B30" s="28"/>
     </row>
     <row r="31" ht="22.75" customHeight="1">
-      <c r="A31" s="28"/>
-      <c r="B31" s="29"/>
-    </row>
-    <row r="32" ht="22.75" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-    </row>
-    <row r="33" ht="22.5" customHeight="1">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+    </row>
+    <row r="32" ht="20.75" customHeight="1">
+      <c r="A32" s="31"/>
+      <c r="B32" s="8"/>
+    </row>
+    <row r="33" ht="22.75" customHeight="1">
+      <c r="A33" s="32"/>
+      <c r="B33" s="23"/>
+    </row>
+    <row r="34" ht="22.75" customHeight="1">
+      <c r="A34" s="21"/>
+      <c r="B34" s="25"/>
+    </row>
+    <row r="35" ht="22.5" customHeight="1">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="0.25" bottom="0" header="0.25" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="91" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.25" bottom="0" header="0.25" footer="0"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
 </worksheet>
 </file>
--- a/todo_list.xlsx
+++ b/todo_list.xlsx
@@ -1,23 +1,64 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr date1904="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Checklist - Primacy Weekly To-D" sheetId="1" r:id="rId4"/>
+    <sheet name="Export Summary" sheetId="1" r:id="rId4"/>
+    <sheet name="Checklist - Calendar-1" sheetId="2" r:id="rId5"/>
+    <sheet name="Checklist - Primacy Weekly To-D" sheetId="3" r:id="rId6"/>
+    <sheet name="Checklist - Drawings" sheetId="4" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
+  <si>
+    <t>This document was exported from Numbers. Each table was converted to an Excel worksheet. All other objects on each Numbers sheet were placed on separate worksheets. Please be aware that formula calculations may differ in Excel.</t>
+  </si>
+  <si>
+    <t>Numbers Sheet Name</t>
+  </si>
+  <si>
+    <t>Numbers Table Name</t>
+  </si>
+  <si>
+    <t>Excel Worksheet Name</t>
+  </si>
+  <si>
+    <t>Checklist</t>
+  </si>
+  <si>
+    <t>Calendar-1</t>
+  </si>
+  <si>
+    <t>Checklist - Calendar-1</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday/Sunday</t>
+  </si>
   <si>
     <t>Primacy Weekly To-Do list</t>
   </si>
   <si>
-    <t>Do on which day?</t>
+    <t>Checklist - Primacy Weekly To-D</t>
   </si>
   <si>
     <t>Categories</t>
@@ -26,17 +67,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
-      </rPr>
-      <t>Survive</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
+        <color indexed="12"/>
         <rFont val="Avenir Next Demi Bold"/>
       </rPr>
       <t>W</t>
@@ -44,24 +75,25 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="9"/>
+        <color indexed="12"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
       <t xml:space="preserve">hat are the bare minimum things you need to do to </t>
     </r>
     <r>
       <rPr>
+        <b val="1"/>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Medium"/>
+        <color indexed="12"/>
+        <rFont val="Avenir Next"/>
       </rPr>
       <t>survive</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="9"/>
+        <color indexed="12"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
       <t xml:space="preserve"> the week?</t>
@@ -71,17 +103,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Heavy"/>
-      </rPr>
-      <t>Productive</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="9"/>
+        <color indexed="12"/>
         <rFont val="Avenir Next"/>
       </rPr>
       <t>W</t>
@@ -89,54 +111,53 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="9"/>
+        <color indexed="12"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
       <t xml:space="preserve">hat things should you do this week to be </t>
     </r>
     <r>
       <rPr>
+        <b val="1"/>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Medium"/>
+        <color indexed="12"/>
+        <rFont val="Avenir Next"/>
       </rPr>
       <t>productive</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="9"/>
+        <color indexed="12"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
       <t>?</t>
     </r>
   </si>
   <si>
-    <t>Thrive</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="9"/>
+        <color indexed="12"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
       <t xml:space="preserve">What things can you to this week to </t>
     </r>
     <r>
       <rPr>
+        <b val="1"/>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Medium"/>
+        <color indexed="12"/>
+        <rFont val="Avenir Next"/>
       </rPr>
-      <t>pursue your own happiness</t>
+      <t>thrive</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="9"/>
+        <color indexed="12"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
       <t>?</t>
@@ -158,7 +179,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="17"/>
+        <color indexed="20"/>
         <rFont val="Avenir Next"/>
       </rPr>
       <t>Create/Build</t>
@@ -168,34 +189,47 @@
     <t>Fun/Happiness</t>
   </si>
   <si>
-    <t>Stop</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="9"/>
+        <color indexed="12"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t xml:space="preserve">What things should you </t>
+      <t>What things should you</t>
     </r>
     <r>
       <rPr>
+        <b val="1"/>
+        <sz val="9"/>
+        <color indexed="12"/>
+        <rFont val="Avenir Next"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="1"/>
         <u val="single"/>
         <sz val="9"/>
-        <color indexed="9"/>
-        <rFont val="Avenir Next Medium"/>
+        <color indexed="12"/>
+        <rFont val="Avenir Next"/>
       </rPr>
       <t>stop doing</t>
     </r>
     <r>
       <rPr>
         <sz val="9"/>
-        <color indexed="9"/>
+        <color indexed="12"/>
         <rFont val="Avenir Next Medium"/>
       </rPr>
-      <t xml:space="preserve"> that take you further away from your goals and your happiness?</t>
+      <t xml:space="preserve"> and what would you replace them with?</t>
     </r>
+  </si>
+  <si>
+    <t>"All Drawings from the Sheet"</t>
+  </si>
+  <si>
+    <t>Checklist - Drawings</t>
   </si>
 </sst>
 </file>
@@ -205,11 +239,38 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Avenir Next"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="11"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="14"/>
+      <color indexed="12"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="13"/>
+      <name val="Avenir Next Demi Bold"/>
     </font>
     <font>
       <sz val="9"/>
@@ -219,17 +280,12 @@
     <font>
       <b val="1"/>
       <sz val="13"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="Avenir Next"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color indexed="9"/>
-      <name val="Avenir Next Heavy"/>
-    </font>
-    <font>
       <sz val="9"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="Avenir Next Heavy"/>
     </font>
     <font>
@@ -239,42 +295,39 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="9"/>
-      <name val="Avenir Next Demi Bold"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="Avenir Next Medium"/>
     </font>
     <font>
+      <b val="1"/>
       <u val="single"/>
       <sz val="9"/>
-      <color indexed="9"/>
-      <name val="Avenir Next Medium"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="Avenir Next"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="17"/>
+      <color indexed="12"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="20"/>
+      <name val="Avenir Next"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="9"/>
+      <color indexed="12"/>
       <name val="Avenir Next"/>
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="9"/>
-      <name val="Avenir Next Heavy"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
+      <color indexed="12"/>
       <name val="Avenir Next"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,12 +336,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -297,103 +368,33 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="dotted">
-        <color indexed="13"/>
-      </right>
-      <top style="dotted">
-        <color indexed="13"/>
-      </top>
-      <bottom style="dotted">
         <color indexed="15"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="16"/>
+        <color indexed="15"/>
       </left>
-      <right style="dotted">
-        <color indexed="13"/>
+      <right style="thin">
+        <color indexed="15"/>
       </right>
-      <top style="dotted">
+      <top style="thin">
+        <color indexed="15"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="15"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="15"/>
       </top>
       <bottom style="thin">
@@ -403,46 +404,61 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </left>
-      <right style="dotted">
-        <color indexed="13"/>
+      <right style="thin">
+        <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="15"/>
+        <color indexed="16"/>
       </top>
-      <bottom style="dotted">
-        <color indexed="13"/>
+      <bottom style="thin">
+        <color indexed="17"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </left>
-      <right style="dotted">
-        <color indexed="13"/>
+      <right style="thin">
+        <color indexed="16"/>
       </right>
-      <top style="dotted">
-        <color indexed="13"/>
+      <top style="thin">
+        <color indexed="17"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom style="dotted">
+        <color indexed="18"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="dotted">
-        <color indexed="13"/>
+      <left style="thin">
+        <color indexed="16"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </right>
       <top style="dotted">
-        <color indexed="13"/>
+        <color indexed="18"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="dotted">
+        <color indexed="18"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="16"/>
       </bottom>
       <diagonal/>
     </border>
@@ -452,110 +468,77 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="8" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -575,18 +558,409 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="015e88b1"/>
+      <rgbColor rgb="01eef3f4"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff6d6d6d"/>
+      <rgbColor rgb="fffefefe"/>
+      <rgbColor rgb="ff7fc5d9"/>
+      <rgbColor rgb="ffdfdfdf"/>
       <rgbColor rgb="ffe3e3e3"/>
       <rgbColor rgb="ff929292"/>
-      <rgbColor rgb="ff323232"/>
       <rgbColor rgb="ffadadad"/>
       <rgbColor rgb="fff4f9f7"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffbfbfbf"/>
       <rgbColor rgb="ffb8b8b8"/>
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358838</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>657161</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Shape 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2644838" y="-354965"/>
+          <a:ext cx="2584324" cy="379731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{C572A759-6A51-4108-AA02-DFA0A04FC94B}">
+            <ma14:wrappingTextBoxFlag xmlns:ma14="http://schemas.microsoft.com/office/mac/drawingml/2011/main" val="1"/>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" latinLnBrk="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="600"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr b="1" baseline="0" cap="all" i="0" spc="0" strike="noStrike" sz="1300" u="none">
+              <a:solidFill>
+                <a:srgbClr val="6D6D6D"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Avenir Next"/>
+              <a:ea typeface="Avenir Next"/>
+              <a:cs typeface="Avenir Next"/>
+              <a:sym typeface="Avenir Next"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" baseline="0" cap="all" i="0" spc="0" strike="noStrike" sz="1300" u="none">
+              <a:solidFill>
+                <a:srgbClr val="6D6D6D"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Avenir Next"/>
+              <a:ea typeface="Avenir Next"/>
+              <a:cs typeface="Avenir Next"/>
+              <a:sym typeface="Avenir Next"/>
+            </a:rPr>
+            <a:t>Primacy Weekly To-Do list</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>527063</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142708</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>734160</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>106550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10783647">
+          <a:off x="2051063" y="638008"/>
+          <a:ext cx="207098" cy="128943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59793"/>
+            <a:gd name="adj2" fmla="val 95723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="30838"/>
+            <a:satOff val="27873"/>
+            <a:lumOff val="-22806"/>
+            <a:alpha val="49630"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>528328</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>72114</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>735425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>35956</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Shape 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10783647">
+          <a:off x="2052328" y="2218414"/>
+          <a:ext cx="207098" cy="128943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59793"/>
+            <a:gd name="adj2" fmla="val 95723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="30838"/>
+            <a:satOff val="27873"/>
+            <a:lumOff val="-22806"/>
+            <a:alpha val="49630"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>528328</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>98484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>735425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>62326</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Shape 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10783647">
+          <a:off x="2052328" y="4391084"/>
+          <a:ext cx="207098" cy="128943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59793"/>
+            <a:gd name="adj2" fmla="val 95723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="30838"/>
+            <a:satOff val="27873"/>
+            <a:lumOff val="-22806"/>
+            <a:alpha val="49630"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>528328</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>735425</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90901</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Shape 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10783647">
+          <a:off x="2052328" y="6235759"/>
+          <a:ext cx="207098" cy="128943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59793"/>
+            <a:gd name="adj2" fmla="val 95723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="30838"/>
+            <a:satOff val="27873"/>
+            <a:lumOff val="-22806"/>
+            <a:alpha val="49630"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>527063</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>156953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>734160</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>120795</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Shape 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10783647">
+          <a:off x="2051063" y="8246853"/>
+          <a:ext cx="207098" cy="128943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 59793"/>
+            <a:gd name="adj2" fmla="val 95723"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:hueOff val="30838"/>
+            <a:satOff val="27873"/>
+            <a:lumOff val="-22806"/>
+            <a:alpha val="49630"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="12700" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1668,199 +2042,308 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="2" customWidth="1"/>
+    <col min="2" max="4" width="33.6016" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" ht="0.05" customHeight="1">
+      <c r="B3" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="7">
+      <c r="B7" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s" s="3">
+        <v>4</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10">
+      <c r="B10" s="4"/>
+      <c r="C10" t="s" s="4">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="4"/>
+      <c r="C11" t="s" s="4">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="4"/>
+      <c r="C12" t="s" s="4">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s" s="5">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:D3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D10" location="'Checklist - Calendar-1'!R1C1" tooltip="" display="Checklist - Calendar-1"/>
+    <hyperlink ref="D11" location="'Checklist - Primacy Weekly To-D'!R1C1" tooltip="" display="Checklist - Primacy Weekly To-D"/>
+    <hyperlink ref="D12" location="'Checklist - Drawings'!R1C1" tooltip="" display="Checklist - Drawings"/>
+  </hyperlinks>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.3095" defaultRowHeight="21.65" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="27.3125" style="6" customWidth="1"/>
+    <col min="2" max="256" width="17.3359" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.8" customHeight="1">
+      <c r="A1" t="s" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="115.9" customHeight="1">
+      <c r="A2" s="8"/>
+    </row>
+    <row r="3" ht="20.85" customHeight="1">
+      <c r="A3" t="s" s="9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="112.6" customHeight="1">
+      <c r="A4" s="8"/>
+    </row>
+    <row r="5" ht="22.5" customHeight="1">
+      <c r="A5" t="s" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="110.1" customHeight="1">
+      <c r="A6" s="8"/>
+    </row>
+    <row r="7" ht="22.5" customHeight="1">
+      <c r="A7" t="s" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" ht="112.35" customHeight="1">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" ht="22.5" customHeight="1">
+      <c r="A9" t="s" s="10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="106" customHeight="1">
+      <c r="A10" s="8"/>
+    </row>
+    <row r="11" ht="22.5" customHeight="1">
+      <c r="A11" t="s" s="10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" ht="98.85" customHeight="1">
+      <c r="A12" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.5" right="0.5" top="0.25" bottom="0" header="0.25" footer="0"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="96" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:A37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.17169" defaultRowHeight="20.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.7656" style="1" customWidth="1"/>
-    <col min="2" max="2" width="75.5312" style="1" customWidth="1"/>
-    <col min="3" max="256" width="8.17969" style="1" customWidth="1"/>
+    <col min="1" max="1" width="61.9453" style="11" customWidth="1"/>
+    <col min="2" max="256" width="8.17969" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32" customHeight="1">
-      <c r="A1" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" ht="20.6" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" ht="20.85" customHeight="1">
-      <c r="A3" t="s" s="5">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>4</v>
-      </c>
+    <row r="1" ht="20.6" customHeight="1">
+      <c r="A1" t="s" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" ht="20.85" customHeight="1">
+      <c r="A2" t="s" s="13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="20.75" customHeight="1">
+      <c r="A3" s="14"/>
     </row>
     <row r="4" ht="20.75" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
+      <c r="A4" s="15"/>
     </row>
     <row r="5" ht="20.75" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
+      <c r="A5" s="14"/>
     </row>
     <row r="6" ht="20.75" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="15"/>
     </row>
     <row r="7" ht="20.75" customHeight="1">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
+      <c r="A7" s="14"/>
     </row>
     <row r="8" ht="20.75" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="15"/>
     </row>
     <row r="9" ht="20.75" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" ht="20.75" customHeight="1">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="15"/>
     </row>
     <row r="11" ht="20.75" customHeight="1">
-      <c r="A11" t="s" s="12">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s" s="13">
-        <v>6</v>
+      <c r="A11" t="s" s="16">
+        <v>17</v>
       </c>
     </row>
     <row r="12" ht="20.75" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="15"/>
     </row>
     <row r="13" ht="20.75" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="14"/>
     </row>
     <row r="14" ht="20.75" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="15"/>
     </row>
     <row r="15" ht="20.75" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="14"/>
     </row>
     <row r="16" ht="20.75" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="15"/>
     </row>
     <row r="17" ht="20.75" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="14"/>
     </row>
     <row r="18" ht="20.75" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="15"/>
     </row>
     <row r="19" ht="20.75" customHeight="1">
-      <c r="A19" s="15"/>
-      <c r="B19" s="10"/>
+      <c r="A19" s="14"/>
     </row>
     <row r="20" ht="20.75" customHeight="1">
-      <c r="A20" t="s" s="16">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s" s="17">
-        <v>8</v>
-      </c>
+      <c r="A20" s="15"/>
     </row>
     <row r="21" ht="20.75" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" t="s" s="19">
-        <v>9</v>
+      <c r="A21" t="s" s="16">
+        <v>18</v>
       </c>
     </row>
     <row r="22" ht="20.75" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" t="s" s="20">
-        <v>10</v>
+      <c r="A22" t="s" s="17">
+        <v>19</v>
       </c>
     </row>
     <row r="23" ht="20.75" customHeight="1">
-      <c r="A23" s="9"/>
-      <c r="B23" t="s" s="19">
-        <v>11</v>
+      <c r="A23" t="s" s="18">
+        <v>20</v>
       </c>
     </row>
     <row r="24" ht="20.75" customHeight="1">
-      <c r="A24" s="7"/>
-      <c r="B24" t="s" s="20">
-        <v>12</v>
+      <c r="A24" t="s" s="17">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="20.75" customHeight="1">
-      <c r="A25" s="9"/>
-      <c r="B25" t="s" s="19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" ht="22.75" customHeight="1">
-      <c r="A26" s="21"/>
-      <c r="B26" t="s" s="20">
-        <v>14</v>
+      <c r="A25" t="s" s="18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" ht="20.75" customHeight="1">
+      <c r="A26" t="s" s="17">
+        <v>23</v>
       </c>
     </row>
     <row r="27" ht="20.75" customHeight="1">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
+      <c r="A27" t="s" s="18">
+        <v>24</v>
+      </c>
     </row>
     <row r="28" ht="20.75" customHeight="1">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="17"/>
     </row>
     <row r="29" ht="20.75" customHeight="1">
-      <c r="A29" t="s" s="22">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s" s="26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" ht="22.75" customHeight="1">
-      <c r="A30" s="27"/>
-      <c r="B30" s="28"/>
+      <c r="A29" s="18"/>
+    </row>
+    <row r="30" ht="20.75" customHeight="1">
+      <c r="A30" t="s" s="19">
+        <v>25</v>
+      </c>
     </row>
     <row r="31" ht="22.75" customHeight="1">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-    </row>
-    <row r="32" ht="20.75" customHeight="1">
-      <c r="A32" s="31"/>
-      <c r="B32" s="8"/>
+      <c r="A31" s="20"/>
+    </row>
+    <row r="32" ht="22.75" customHeight="1">
+      <c r="A32" s="21"/>
     </row>
     <row r="33" ht="22.75" customHeight="1">
-      <c r="A33" s="32"/>
-      <c r="B33" s="23"/>
-    </row>
-    <row r="34" ht="22.75" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="25"/>
-    </row>
-    <row r="35" ht="22.5" customHeight="1">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
+      <c r="A33" s="20"/>
+    </row>
+    <row r="34" ht="20.75" customHeight="1">
+      <c r="A34" s="15"/>
+    </row>
+    <row r="35" ht="20.75" customHeight="1">
+      <c r="A35" s="14"/>
+    </row>
+    <row r="36" ht="20.75" customHeight="1">
+      <c r="A36" s="22"/>
+    </row>
+    <row r="37" ht="22.5" customHeight="1">
+      <c r="A37" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.25" bottom="0" header="0.25" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="96" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetViews>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="256" width="10" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.5" right="0.5" top="0.25" bottom="0" header="0.25" footer="0"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="96" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>